--- a/RingCTToken/other/GasCosts.xlsx
+++ b/RingCTToken/other/GasCosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solidblu1992\Documents\GitHub\ethereum\RingCTToken\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA1228-92AC-4699-AED3-451A146B899A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE461E4-8BCB-4533-BD65-3F8F00946A1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10572" windowHeight="4956" xr2:uid="{B52E8722-F355-4D15-980D-FAF5651C79FA}"/>
   </bookViews>
@@ -45,15 +45,9 @@
     <t>M</t>
   </si>
   <si>
-    <t>Bulletproof</t>
-  </si>
-  <si>
     <t>Per Proof</t>
   </si>
   <si>
-    <t>Total Gas</t>
-  </si>
-  <si>
     <t>Per Commitment</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Infinity</t>
+  </si>
+  <si>
+    <t>Bullet Proof</t>
+  </si>
+  <si>
+    <t>Total Gas (MGas)</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +499,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D20ED6-1C18-4499-96D9-D3EA84E9C042}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +842,7 @@
     <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -847,18 +850,18 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
     </row>
     <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -871,40 +874,40 @@
         <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
+      <c r="I3" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="M3" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -921,45 +924,45 @@
         <v>1.0469999999999999</v>
       </c>
       <c r="F4" s="32">
-        <f>E4/C4</f>
+        <f t="shared" ref="F4:F24" si="0">E4/C4</f>
         <v>1.0469999999999999</v>
       </c>
       <c r="G4" s="32">
-        <f>E4/D4/C4</f>
+        <f t="shared" ref="G4:G24" si="1">E4/D4/C4</f>
         <v>1.0469999999999999</v>
       </c>
       <c r="H4" s="33">
-        <f>G4/B4</f>
+        <f t="shared" ref="H4:H24" si="2">G4/B4</f>
         <v>0.26174999999999998</v>
       </c>
       <c r="I4" s="34">
         <v>1.24</v>
       </c>
       <c r="J4" s="10">
-        <f>I4/C4</f>
+        <f t="shared" ref="J4:J10" si="3">I4/C4</f>
         <v>1.24</v>
       </c>
       <c r="K4" s="10">
-        <f>I4/C4/D4</f>
+        <f t="shared" ref="K4:K10" si="4">I4/C4/D4</f>
         <v>1.24</v>
       </c>
       <c r="L4" s="11">
-        <f>K4/B4</f>
+        <f t="shared" ref="L4:L10" si="5">K4/B4</f>
         <v>0.31</v>
       </c>
       <c r="M4" s="41" t="str">
-        <f>IF(H4&gt;L4, "Bullet Proof", "Borromean")</f>
+        <f t="shared" ref="M4:M25" si="6">IF(H4&gt;L4, "Bullet Proof", "Borromean")</f>
         <v>Borromean</v>
       </c>
       <c r="N4" s="35">
-        <f>(L4-H4)/H4</f>
+        <f t="shared" ref="N4:N10" si="7">(L4-H4)/H4</f>
         <v>0.18433619866284628</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -977,45 +980,45 @@
         <v>2.0939999999999999</v>
       </c>
       <c r="F5" s="13">
-        <f>E5/C5</f>
+        <f t="shared" si="0"/>
         <v>2.0939999999999999</v>
       </c>
       <c r="G5" s="13">
-        <f>E5/D5/C5</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H5" s="14">
-        <f>G5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I5" s="20">
         <v>1.897</v>
       </c>
       <c r="J5" s="19">
-        <f>I5/C5</f>
+        <f t="shared" si="3"/>
         <v>1.897</v>
       </c>
       <c r="K5" s="19">
-        <f>I5/C5/D5</f>
+        <f t="shared" si="4"/>
         <v>0.94850000000000001</v>
       </c>
       <c r="L5" s="22">
-        <f>K5/B5</f>
+        <f t="shared" si="5"/>
         <v>0.237125</v>
       </c>
       <c r="M5" s="42" t="str">
-        <f>IF(H5&gt;L5, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N5" s="29">
-        <f>(L5-H5)/H5</f>
+        <f t="shared" si="7"/>
         <v>-9.4078319006685701E-2</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
@@ -1029,49 +1032,49 @@
         <v>4</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" ref="E6:E14" si="0">$E$4*C6*D6</f>
+        <f t="shared" ref="E6:E14" si="8">$E$4*C6*D6</f>
         <v>4.1879999999999997</v>
       </c>
       <c r="F6" s="13">
-        <f>E6/C6</f>
+        <f t="shared" si="0"/>
         <v>4.1879999999999997</v>
       </c>
       <c r="G6" s="13">
-        <f>E6/D6/C6</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H6" s="14">
-        <f>G6/B6</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I6" s="20">
         <v>3.0910000000000002</v>
       </c>
       <c r="J6" s="19">
-        <f>I6/C6</f>
+        <f t="shared" si="3"/>
         <v>3.0910000000000002</v>
       </c>
       <c r="K6" s="19">
-        <f>I6/C6/D6</f>
+        <f t="shared" si="4"/>
         <v>0.77275000000000005</v>
       </c>
       <c r="L6" s="22">
-        <f>K6/B6</f>
+        <f t="shared" si="5"/>
         <v>0.19318750000000001</v>
       </c>
       <c r="M6" s="42" t="str">
-        <f>IF(H6&gt;L6, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N6" s="29">
-        <f>(L6-H6)/H6</f>
+        <f t="shared" si="7"/>
         <v>-0.26193887297039148</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -1085,49 +1088,49 @@
         <v>8</v>
       </c>
       <c r="E7" s="12">
+        <f t="shared" si="8"/>
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>8.3759999999999994</v>
       </c>
-      <c r="F7" s="13">
-        <f>E7/C7</f>
-        <v>8.3759999999999994</v>
-      </c>
       <c r="G7" s="13">
-        <f>E7/D7/C7</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H7" s="14">
-        <f>G7/B7</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I7" s="20">
         <v>5.39</v>
       </c>
       <c r="J7" s="19">
-        <f>I7/C7</f>
+        <f t="shared" si="3"/>
         <v>5.39</v>
       </c>
       <c r="K7" s="19">
-        <f>I7/C7/D7</f>
+        <f t="shared" si="4"/>
         <v>0.67374999999999996</v>
       </c>
       <c r="L7" s="22">
-        <f>K7/B7</f>
+        <f t="shared" si="5"/>
         <v>0.16843749999999999</v>
       </c>
       <c r="M7" s="42" t="str">
-        <f>IF(H7&gt;L7, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N7" s="29">
-        <f>(L7-H7)/H7</f>
+        <f t="shared" si="7"/>
         <v>-0.356494746895893</v>
       </c>
       <c r="P7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="23" t="s">
         <v>16</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -1141,49 +1144,49 @@
         <v>1</v>
       </c>
       <c r="E8" s="12">
+        <f t="shared" si="8"/>
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="F8" s="13">
-        <f>E8/C8</f>
         <v>1.0469999999999999</v>
       </c>
       <c r="G8" s="13">
-        <f>E8/D8/C8</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H8" s="14">
-        <f>G8/B8</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I8" s="20">
         <v>2.3530000000000002</v>
       </c>
       <c r="J8" s="19">
-        <f>I8/C8</f>
+        <f t="shared" si="3"/>
         <v>1.1765000000000001</v>
       </c>
       <c r="K8" s="19">
-        <f>I8/C8/D8</f>
+        <f t="shared" si="4"/>
         <v>1.1765000000000001</v>
       </c>
       <c r="L8" s="22">
-        <f>K8/B8</f>
+        <f t="shared" si="5"/>
         <v>0.29412500000000003</v>
       </c>
       <c r="M8" s="40" t="str">
-        <f>IF(H8&gt;L8, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Borromean</v>
       </c>
       <c r="N8" s="36">
-        <f>(L8-H8)/H8</f>
+        <f t="shared" si="7"/>
         <v>0.1236867239732571</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -1197,49 +1200,49 @@
         <v>2</v>
       </c>
       <c r="E9" s="12">
+        <f t="shared" si="8"/>
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="F9" s="13">
-        <f>E9/C9</f>
         <v>2.0939999999999999</v>
       </c>
       <c r="G9" s="13">
-        <f>E9/D9/C9</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H9" s="14">
-        <f>G9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I9" s="20">
         <v>3.3119999999999998</v>
       </c>
       <c r="J9" s="19">
-        <f>I9/C9</f>
+        <f t="shared" si="3"/>
         <v>1.6559999999999999</v>
       </c>
       <c r="K9" s="19">
-        <f>I9/C9/D9</f>
+        <f t="shared" si="4"/>
         <v>0.82799999999999996</v>
       </c>
       <c r="L9" s="22">
-        <f>K9/B9</f>
+        <f t="shared" si="5"/>
         <v>0.20699999999999999</v>
       </c>
       <c r="M9" s="42" t="str">
-        <f>IF(H9&gt;L9, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N9" s="29">
-        <f>(L9-H9)/H9</f>
+        <f t="shared" si="7"/>
         <v>-0.20916905444126074</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -1253,49 +1256,49 @@
         <v>4</v>
       </c>
       <c r="E10" s="12">
+        <f t="shared" si="8"/>
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>8.3759999999999994</v>
-      </c>
-      <c r="F10" s="13">
-        <f>E10/C10</f>
         <v>4.1879999999999997</v>
       </c>
       <c r="G10" s="13">
-        <f>E10/D10/C10</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H10" s="14">
-        <f>G10/B10</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I10" s="20">
         <v>5.0090000000000003</v>
       </c>
       <c r="J10" s="19">
-        <f>I10/C10</f>
+        <f t="shared" si="3"/>
         <v>2.5045000000000002</v>
       </c>
       <c r="K10" s="19">
-        <f>I10/C10/D10</f>
+        <f t="shared" si="4"/>
         <v>0.62612500000000004</v>
       </c>
       <c r="L10" s="22">
-        <f>K10/B10</f>
+        <f t="shared" si="5"/>
         <v>0.15653125000000001</v>
       </c>
       <c r="M10" s="42" t="str">
-        <f>IF(H10&gt;L10, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N10" s="29">
-        <f>(L10-H10)/H10</f>
+        <f t="shared" si="7"/>
         <v>-0.40198185291308491</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -1309,45 +1312,45 @@
         <v>8</v>
       </c>
       <c r="E11" s="12">
+        <f t="shared" si="8"/>
+        <v>16.751999999999999</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>16.751999999999999</v>
-      </c>
-      <c r="F11" s="13">
-        <f>E11/C11</f>
         <v>8.3759999999999994</v>
       </c>
       <c r="G11" s="13">
-        <f>E11/D11/C11</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H11" s="14">
-        <f>G11/B11</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M11" s="40" t="str">
-        <f>IF(H11&gt;L11, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Borromean</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
@@ -1361,19 +1364,19 @@
         <v>1</v>
       </c>
       <c r="E12" s="12">
+        <f t="shared" si="8"/>
+        <v>4.1879999999999997</v>
+      </c>
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
-        <v>4.1879999999999997</v>
-      </c>
-      <c r="F12" s="13">
-        <f>E12/C12</f>
         <v>1.0469999999999999</v>
       </c>
       <c r="G12" s="13">
-        <f>E12/D12/C12</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H12" s="14">
-        <f>G12/B12</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I12" s="20">
@@ -1392,7 +1395,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="M12" s="42" t="str">
-        <f>IF(H12&gt;L12, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N12" s="29">
@@ -1400,10 +1403,10 @@
         <v>-2.196752626552045E-2</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
@@ -1417,19 +1420,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="12">
+        <f t="shared" si="8"/>
+        <v>8.3759999999999994</v>
+      </c>
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
-        <v>8.3759999999999994</v>
-      </c>
-      <c r="F13" s="13">
-        <f>E13/C13</f>
         <v>2.0939999999999999</v>
       </c>
       <c r="G13" s="13">
-        <f>E13/D13/C13</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H13" s="14">
-        <f>G13/B13</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I13" s="20">
@@ -1448,7 +1451,7 @@
         <v>0.17690624999999999</v>
       </c>
       <c r="M13" s="42" t="str">
-        <f>IF(H13&gt;L13, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N13" s="29">
@@ -1456,10 +1459,10 @@
         <v>-0.3241404011461318</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
@@ -1473,45 +1476,45 @@
         <v>4</v>
       </c>
       <c r="E14" s="12">
+        <f t="shared" si="8"/>
+        <v>16.751999999999999</v>
+      </c>
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
-        <v>16.751999999999999</v>
-      </c>
-      <c r="F14" s="13">
-        <f>E14/C14</f>
         <v>4.1879999999999997</v>
       </c>
       <c r="G14" s="13">
-        <f>E14/D14/C14</f>
+        <f t="shared" si="1"/>
         <v>1.0469999999999999</v>
       </c>
       <c r="H14" s="14">
-        <f>G14/B14</f>
+        <f t="shared" si="2"/>
         <v>0.26174999999999998</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="40" t="str">
-        <f>IF(H14&gt;L14, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Borromean</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
@@ -1528,45 +1531,45 @@
         <v>2.02</v>
       </c>
       <c r="F15" s="19">
-        <f>E15/C15</f>
+        <f t="shared" si="0"/>
         <v>2.02</v>
       </c>
       <c r="G15" s="19">
-        <f>E15/D15/C15</f>
+        <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
       <c r="H15" s="22">
-        <f>G15/B15</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I15" s="18">
         <v>1.7709999999999999</v>
       </c>
       <c r="J15" s="19">
-        <f>I15/C15</f>
+        <f t="shared" ref="J15:J25" si="9">I15/C15</f>
         <v>1.7709999999999999</v>
       </c>
       <c r="K15" s="19">
-        <f>I15/C15/D15</f>
+        <f t="shared" ref="K15:K25" si="10">I15/C15/D15</f>
         <v>1.7709999999999999</v>
       </c>
       <c r="L15" s="22">
-        <f>K15/B15</f>
+        <f t="shared" ref="L15:L25" si="11">K15/B15</f>
         <v>0.22137499999999999</v>
       </c>
       <c r="M15" s="42" t="str">
-        <f>IF(H15&gt;L15, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N15" s="29">
-        <f>(L15-H15)/H15</f>
+        <f t="shared" ref="N15:N24" si="12">(L15-H15)/H15</f>
         <v>-0.12326732673267332</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -1584,45 +1587,45 @@
         <v>4.04</v>
       </c>
       <c r="F16" s="13">
-        <f>E16/C16</f>
+        <f t="shared" si="0"/>
         <v>4.04</v>
       </c>
       <c r="G16" s="13">
-        <f>E16/D16/C16</f>
+        <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
       <c r="H16" s="14">
-        <f>G16/B16</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I16" s="18">
         <v>2.831</v>
       </c>
       <c r="J16" s="19">
-        <f>I16/C16</f>
+        <f t="shared" si="9"/>
         <v>2.831</v>
       </c>
       <c r="K16" s="19">
-        <f>I16/C16/D16</f>
+        <f t="shared" si="10"/>
         <v>1.4155</v>
       </c>
       <c r="L16" s="22">
-        <f>K16/B16</f>
+        <f t="shared" si="11"/>
         <v>0.1769375</v>
       </c>
       <c r="M16" s="42" t="str">
-        <f>IF(H16&gt;L16, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N16" s="29">
-        <f>(L16-H16)/H16</f>
+        <f t="shared" si="12"/>
         <v>-0.29925742574257425</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
@@ -1636,49 +1639,49 @@
         <v>4</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" ref="E17:E20" si="1">$E$15*C17*D17</f>
+        <f t="shared" ref="E17:E20" si="13">$E$15*C17*D17</f>
         <v>8.08</v>
       </c>
       <c r="F17" s="13">
-        <f>E17/C17</f>
+        <f t="shared" si="0"/>
         <v>8.08</v>
       </c>
       <c r="G17" s="13">
-        <f>E17/D17/C17</f>
+        <f t="shared" si="1"/>
         <v>2.02</v>
       </c>
       <c r="H17" s="14">
-        <f>G17/B17</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I17" s="18">
         <v>4.8650000000000002</v>
       </c>
       <c r="J17" s="19">
-        <f>I17/C17</f>
+        <f t="shared" si="9"/>
         <v>4.8650000000000002</v>
       </c>
       <c r="K17" s="19">
-        <f>I17/C17/D17</f>
+        <f t="shared" si="10"/>
         <v>1.2162500000000001</v>
       </c>
       <c r="L17" s="22">
-        <f>K17/B17</f>
+        <f t="shared" si="11"/>
         <v>0.15203125000000001</v>
       </c>
       <c r="M17" s="42" t="str">
-        <f>IF(H17&gt;L17, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N17" s="29">
-        <f>(L17-H17)/H17</f>
+        <f t="shared" si="12"/>
         <v>-0.39789603960396036</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
@@ -1692,49 +1695,49 @@
         <v>1</v>
       </c>
       <c r="E18" s="12">
+        <f t="shared" si="13"/>
+        <v>4.04</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>4.04</v>
-      </c>
-      <c r="F18" s="13">
-        <f>E18/C18</f>
         <v>2.02</v>
       </c>
-      <c r="G18" s="13">
-        <f>E18/D18/C18</f>
-        <v>2.02</v>
-      </c>
       <c r="H18" s="14">
-        <f>G18/B18</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I18" s="18">
         <v>3.0710000000000002</v>
       </c>
       <c r="J18" s="19">
-        <f>I18/C18</f>
+        <f t="shared" si="9"/>
         <v>1.5355000000000001</v>
       </c>
       <c r="K18" s="19">
-        <f>I18/C18/D18</f>
+        <f t="shared" si="10"/>
         <v>1.5355000000000001</v>
       </c>
       <c r="L18" s="22">
-        <f>K18/B18</f>
+        <f t="shared" si="11"/>
         <v>0.19193750000000001</v>
       </c>
       <c r="M18" s="42" t="str">
-        <f>IF(H18&gt;L18, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N18" s="29">
-        <f>(L18-H18)/H18</f>
+        <f t="shared" si="12"/>
         <v>-0.23985148514851481</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
@@ -1748,49 +1751,49 @@
         <v>2</v>
       </c>
       <c r="E19" s="12">
+        <f t="shared" si="13"/>
+        <v>8.08</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>4.04</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
-        <v>8.08</v>
-      </c>
-      <c r="F19" s="13">
-        <f>E19/C19</f>
-        <v>4.04</v>
-      </c>
-      <c r="G19" s="13">
-        <f>E19/D19/C19</f>
         <v>2.02</v>
       </c>
       <c r="H19" s="14">
-        <f>G19/B19</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I19" s="18">
         <v>4.4889999999999999</v>
       </c>
       <c r="J19" s="19">
-        <f>I19/C19</f>
+        <f t="shared" si="9"/>
         <v>2.2444999999999999</v>
       </c>
       <c r="K19" s="19">
-        <f>I19/C19/D19</f>
+        <f t="shared" si="10"/>
         <v>1.12225</v>
       </c>
       <c r="L19" s="22">
-        <f>K19/B19</f>
+        <f t="shared" si="11"/>
         <v>0.14028125</v>
       </c>
       <c r="M19" s="42" t="str">
-        <f>IF(H19&gt;L19, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N19" s="29">
-        <f>(L19-H19)/H19</f>
+        <f t="shared" si="12"/>
         <v>-0.44443069306930694</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
@@ -1804,49 +1807,49 @@
         <v>1</v>
       </c>
       <c r="E20" s="12">
+        <f t="shared" si="13"/>
+        <v>8.08</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+      <c r="G20" s="13">
         <f t="shared" si="1"/>
-        <v>8.08</v>
-      </c>
-      <c r="F20" s="13">
-        <f>E20/C20</f>
         <v>2.02</v>
       </c>
-      <c r="G20" s="13">
-        <f>E20/D20/C20</f>
-        <v>2.02</v>
-      </c>
       <c r="H20" s="14">
-        <f>G20/B20</f>
+        <f t="shared" si="2"/>
         <v>0.2525</v>
       </c>
       <c r="I20" s="18">
         <v>5.1609999999999996</v>
       </c>
       <c r="J20" s="19">
-        <f>I20/C20</f>
+        <f t="shared" si="9"/>
         <v>1.2902499999999999</v>
       </c>
       <c r="K20" s="19">
-        <f>I20/C20/D20</f>
+        <f t="shared" si="10"/>
         <v>1.2902499999999999</v>
       </c>
       <c r="L20" s="22">
-        <f>K20/B20</f>
+        <f t="shared" si="11"/>
         <v>0.16128124999999999</v>
       </c>
       <c r="M20" s="42" t="str">
-        <f>IF(H20&gt;L20, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N20" s="29">
-        <f>(L20-H20)/H20</f>
+        <f t="shared" si="12"/>
         <v>-0.36126237623762381</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -1863,45 +1866,45 @@
         <v>3.9649999999999999</v>
       </c>
       <c r="F21" s="16">
-        <f>E21/C21</f>
+        <f t="shared" si="0"/>
         <v>3.9649999999999999</v>
       </c>
       <c r="G21" s="16">
-        <f>E21/D21/C21</f>
+        <f t="shared" si="1"/>
         <v>3.9649999999999999</v>
       </c>
       <c r="H21" s="17">
-        <f>G21/B21</f>
+        <f t="shared" si="2"/>
         <v>0.24781249999999999</v>
       </c>
       <c r="I21" s="18">
         <v>2.7080000000000002</v>
       </c>
       <c r="J21" s="19">
-        <f>I21/C21</f>
+        <f t="shared" si="9"/>
         <v>2.7080000000000002</v>
       </c>
       <c r="K21" s="19">
-        <f>I21/C21/D21</f>
+        <f t="shared" si="10"/>
         <v>2.7080000000000002</v>
       </c>
       <c r="L21" s="22">
-        <f>K21/B21</f>
+        <f t="shared" si="11"/>
         <v>0.16925000000000001</v>
       </c>
       <c r="M21" s="42" t="str">
-        <f>IF(H21&gt;L21, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N21" s="29">
-        <f>(L21-H21)/H21</f>
+        <f t="shared" si="12"/>
         <v>-0.31702395964691038</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
@@ -1919,45 +1922,45 @@
         <v>7.93</v>
       </c>
       <c r="F22" s="13">
-        <f>E22/C22</f>
+        <f t="shared" si="0"/>
         <v>7.93</v>
       </c>
       <c r="G22" s="13">
-        <f>E22/D22/C22</f>
+        <f t="shared" si="1"/>
         <v>3.9649999999999999</v>
       </c>
       <c r="H22" s="14">
-        <f>G22/B22</f>
+        <f t="shared" si="2"/>
         <v>0.24781249999999999</v>
       </c>
       <c r="I22" s="18">
         <v>4.609</v>
       </c>
       <c r="J22" s="19">
-        <f>I22/C22</f>
+        <f t="shared" si="9"/>
         <v>4.609</v>
       </c>
       <c r="K22" s="19">
-        <f>I22/C22/D22</f>
+        <f t="shared" si="10"/>
         <v>2.3045</v>
       </c>
       <c r="L22" s="22">
-        <f>K22/B22</f>
+        <f t="shared" si="11"/>
         <v>0.14403125</v>
       </c>
       <c r="M22" s="42" t="str">
-        <f>IF(H22&gt;L22, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N22" s="29">
-        <f>(L22-H22)/H22</f>
+        <f t="shared" si="12"/>
         <v>-0.41878940731399744</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
@@ -1971,49 +1974,49 @@
         <v>1</v>
       </c>
       <c r="E23" s="12">
-        <f t="shared" ref="E23:E24" si="2">$E$21*C23*D23</f>
+        <f t="shared" ref="E23:E24" si="14">$E$21*C23*D23</f>
         <v>7.93</v>
       </c>
       <c r="F23" s="13">
-        <f>E23/C23</f>
+        <f t="shared" si="0"/>
         <v>3.9649999999999999</v>
       </c>
       <c r="G23" s="13">
-        <f>E23/D23/C23</f>
+        <f t="shared" si="1"/>
         <v>3.9649999999999999</v>
       </c>
       <c r="H23" s="14">
-        <f>G23/B23</f>
+        <f t="shared" si="2"/>
         <v>0.24781249999999999</v>
       </c>
       <c r="I23" s="18">
         <v>4.2519999999999998</v>
       </c>
       <c r="J23" s="19">
-        <f>I23/C23</f>
+        <f t="shared" si="9"/>
         <v>2.1259999999999999</v>
       </c>
       <c r="K23" s="19">
-        <f>I23/C23/D23</f>
+        <f t="shared" si="10"/>
         <v>2.1259999999999999</v>
       </c>
       <c r="L23" s="22">
-        <f>K23/B23</f>
+        <f t="shared" si="11"/>
         <v>0.13287499999999999</v>
       </c>
       <c r="M23" s="42" t="str">
-        <f>IF(H23&gt;L23, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N23" s="29">
-        <f>(L23-H23)/H23</f>
+        <f t="shared" si="12"/>
         <v>-0.46380832282471629</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
@@ -2027,49 +2030,49 @@
         <v>2</v>
       </c>
       <c r="E24" s="12">
+        <f t="shared" si="14"/>
+        <v>15.86</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>7.93</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9649999999999999</v>
+      </c>
+      <c r="H24" s="14">
         <f t="shared" si="2"/>
-        <v>15.86</v>
-      </c>
-      <c r="F24" s="13">
-        <f>E24/C24</f>
-        <v>7.93</v>
-      </c>
-      <c r="G24" s="13">
-        <f>E24/D24/C24</f>
-        <v>3.9649999999999999</v>
-      </c>
-      <c r="H24" s="14">
-        <f>G24/B24</f>
         <v>0.24781249999999999</v>
       </c>
       <c r="I24" s="18">
         <v>6.65</v>
       </c>
       <c r="J24" s="19">
-        <f>I24/C24</f>
+        <f t="shared" si="9"/>
         <v>3.3250000000000002</v>
       </c>
       <c r="K24" s="19">
-        <f>I24/C24/D24</f>
+        <f t="shared" si="10"/>
         <v>1.6625000000000001</v>
       </c>
       <c r="L24" s="22">
-        <f>K24/B24</f>
+        <f t="shared" si="11"/>
         <v>0.10390625000000001</v>
       </c>
       <c r="M24" s="42" t="str">
-        <f>IF(H24&gt;L24, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N24" s="29">
-        <f>(L24-H24)/H24</f>
+        <f t="shared" si="12"/>
         <v>-0.58070617906683475</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
@@ -2083,44 +2086,44 @@
         <v>1</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I25" s="20">
         <v>4.4779999999999998</v>
       </c>
       <c r="J25" s="19">
-        <f>I25/C25</f>
+        <f t="shared" si="9"/>
         <v>4.4779999999999998</v>
       </c>
       <c r="K25" s="19">
-        <f>I25/C25/D25</f>
+        <f t="shared" si="10"/>
         <v>4.4779999999999998</v>
       </c>
       <c r="L25" s="22">
-        <f>K25/B25</f>
+        <f t="shared" si="11"/>
         <v>0.13993749999999999</v>
       </c>
       <c r="M25" s="42" t="str">
-        <f>IF(H25&gt;L25, "Bullet Proof", "Borromean")</f>
+        <f t="shared" si="6"/>
         <v>Bullet Proof</v>
       </c>
       <c r="N25" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/RingCTToken/other/GasCosts.xlsx
+++ b/RingCTToken/other/GasCosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solidblu1992\Documents\GitHub\ethereum\RingCTToken\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE461E4-8BCB-4533-BD65-3F8F00946A1A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D769E-069B-4614-94A2-4DF15F37E1C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10572" windowHeight="4956" xr2:uid="{B52E8722-F355-4D15-980D-FAF5651C79FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>N</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Total Gas (MGas)</t>
+  </si>
+  <si>
+    <t>Genache Testnet</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -379,7 +388,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,6 +511,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -820,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D20ED6-1C18-4499-96D9-D3EA84E9C042}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,20 +2115,20 @@
       <c r="H25" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="20">
-        <v>4.4779999999999998</v>
+      <c r="I25" s="18">
+        <v>4.4776540000000002</v>
       </c>
       <c r="J25" s="19">
         <f t="shared" si="9"/>
-        <v>4.4779999999999998</v>
+        <v>4.4776540000000002</v>
       </c>
       <c r="K25" s="19">
         <f t="shared" si="10"/>
-        <v>4.4779999999999998</v>
+        <v>4.4776540000000002</v>
       </c>
       <c r="L25" s="22">
         <f t="shared" si="11"/>
-        <v>0.13993749999999999</v>
+        <v>0.13992668750000001</v>
       </c>
       <c r="M25" s="42" t="str">
         <f t="shared" si="6"/>
@@ -2124,6 +2142,198 @@
       </c>
       <c r="Q25" s="23" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="44">
+        <v>7.9703480000000004</v>
+      </c>
+      <c r="J26" s="45">
+        <f t="shared" ref="J26" si="15">I26/C26</f>
+        <v>7.9703480000000004</v>
+      </c>
+      <c r="K26" s="45">
+        <f t="shared" ref="K26" si="16">I26/C26/D26</f>
+        <v>3.9851740000000002</v>
+      </c>
+      <c r="L26" s="46">
+        <f t="shared" ref="L26" si="17">K26/B26</f>
+        <v>0.12453668750000001</v>
+      </c>
+      <c r="M26" s="42" t="str">
+        <f t="shared" ref="M26" si="18">IF(H26&gt;L26, "Bullet Proof", "Borromean")</f>
+        <v>Bullet Proof</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9">
+        <v>4</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="44">
+        <v>14.824450000000001</v>
+      </c>
+      <c r="J27" s="45">
+        <f t="shared" ref="J27" si="19">I27/C27</f>
+        <v>14.824450000000001</v>
+      </c>
+      <c r="K27" s="45">
+        <f t="shared" ref="K27" si="20">I27/C27/D27</f>
+        <v>3.7061125000000001</v>
+      </c>
+      <c r="L27" s="46">
+        <f t="shared" ref="L27" si="21">K27/B27</f>
+        <v>0.115816015625</v>
+      </c>
+      <c r="M27" s="42" t="str">
+        <f t="shared" ref="M27" si="22">IF(H27&gt;L27, "Bullet Proof", "Borromean")</f>
+        <v>Bullet Proof</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="44">
+        <v>7.8951330000000004</v>
+      </c>
+      <c r="J28" s="45">
+        <f t="shared" ref="J28" si="23">I28/C28</f>
+        <v>7.8951330000000004</v>
+      </c>
+      <c r="K28" s="45">
+        <f t="shared" ref="K28" si="24">I28/C28/D28</f>
+        <v>7.8951330000000004</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" ref="L28" si="25">K28/B28</f>
+        <v>0.12336145312500001</v>
+      </c>
+      <c r="M28" s="42" t="str">
+        <f t="shared" ref="M28" si="26">IF(H28&gt;L28, "Bullet Proof", "Borromean")</f>
+        <v>Bullet Proof</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="44">
+        <v>14.636365</v>
+      </c>
+      <c r="J29" s="45">
+        <f t="shared" ref="J29" si="27">I29/C29</f>
+        <v>14.636365</v>
+      </c>
+      <c r="K29" s="45">
+        <f t="shared" ref="K29" si="28">I29/C29/D29</f>
+        <v>7.3181824999999998</v>
+      </c>
+      <c r="L29" s="46">
+        <f t="shared" ref="L29" si="29">K29/B29</f>
+        <v>0.1143466015625</v>
+      </c>
+      <c r="M29" s="42" t="str">
+        <f t="shared" ref="M29" si="30">IF(H29&gt;L29, "Bullet Proof", "Borromean")</f>
+        <v>Bullet Proof</v>
+      </c>
+      <c r="N29" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
